--- a/main/template_Canvas Home Interiors.xlsx
+++ b/main/template_Canvas Home Interiors.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Timesheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Weekly Timesheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D6" s="28" t="n">
-        <v>353</v>
+        <v>503</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="27" t="n"/>
@@ -732,7 +732,7 @@
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="15" t="inlineStr">
         <is>
-          <t>2023/05/01</t>
+          <t>2023/12/11</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
@@ -740,13 +740,29 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="D9" s="17" t="inlineStr"/>
-      <c r="E9" s="18" t="inlineStr"/>
-      <c r="F9" s="19" t="inlineStr"/>
-      <c r="G9" s="20" t="inlineStr"/>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="E9" s="18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F9" s="19" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t>05:26</t>
+        </is>
+      </c>
       <c r="H9" s="21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>7:44</t>
         </is>
       </c>
     </row>
@@ -754,7 +770,7 @@
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="15" t="inlineStr">
         <is>
-          <t>2023/05/02</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="C10" s="16" t="inlineStr">
@@ -762,13 +778,29 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="D10" s="17" t="inlineStr"/>
-      <c r="E10" s="18" t="inlineStr"/>
-      <c r="F10" s="19" t="inlineStr"/>
-      <c r="G10" s="20" t="inlineStr"/>
+      <c r="D10" s="17" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t>05:18</t>
+        </is>
+      </c>
       <c r="H10" s="21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>7:41</t>
         </is>
       </c>
     </row>
@@ -776,7 +808,7 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="15" t="inlineStr">
         <is>
-          <t>2023/05/03</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="C11" s="16" t="inlineStr">
@@ -784,29 +816,13 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="D11" s="17" t="inlineStr">
-        <is>
-          <t>09:10</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F11" s="19" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="G11" s="20" t="inlineStr">
-        <is>
-          <t>05:35</t>
-        </is>
-      </c>
+      <c r="D11" s="17" t="inlineStr"/>
+      <c r="E11" s="18" t="inlineStr"/>
+      <c r="F11" s="19" t="inlineStr"/>
+      <c r="G11" s="20" t="inlineStr"/>
       <c r="H11" s="21" t="inlineStr">
         <is>
-          <t>7:55</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -814,7 +830,7 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>2023/05/04</t>
+          <t>2023/12/14</t>
         </is>
       </c>
       <c r="C12" s="16" t="inlineStr">
@@ -824,7 +840,7 @@
       </c>
       <c r="D12" s="17" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:05</t>
         </is>
       </c>
       <c r="E12" s="18" t="inlineStr">
@@ -839,12 +855,12 @@
       </c>
       <c r="G12" s="20" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>05:31</t>
         </is>
       </c>
       <c r="H12" s="21" t="inlineStr">
         <is>
-          <t>7:25</t>
+          <t>7:56</t>
         </is>
       </c>
     </row>
@@ -852,7 +868,7 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="15" t="inlineStr">
         <is>
-          <t>2023/05/05</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="C13" s="16" t="inlineStr">
@@ -862,7 +878,7 @@
       </c>
       <c r="D13" s="17" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="E13" s="18" t="inlineStr">
@@ -877,12 +893,12 @@
       </c>
       <c r="G13" s="20" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>06:49</t>
         </is>
       </c>
       <c r="H13" s="21" t="inlineStr">
         <is>
-          <t>7:38</t>
+          <t>8:24</t>
         </is>
       </c>
     </row>
@@ -890,7 +906,7 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="15" t="inlineStr">
         <is>
-          <t>2023/05/06</t>
+          <t>2023/12/16</t>
         </is>
       </c>
       <c r="C14" s="16" t="inlineStr">
@@ -912,7 +928,7 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="15" t="inlineStr">
         <is>
-          <t>2023/05/07</t>
+          <t>2023/12/17</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
@@ -954,7 +970,7 @@
       </c>
       <c r="H17" s="24" t="inlineStr">
         <is>
-          <t>22:58</t>
+          <t>31:45</t>
         </is>
       </c>
     </row>
@@ -987,7 +1003,7 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>689</v>
+        <v>952.5</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" s="29">
